--- a/lipid droplet/13125__analysis_by_image.xlsx
+++ b/lipid droplet/13125__analysis_by_image.xlsx
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>547</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3">
@@ -517,7 +517,7 @@
         <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>846</v>
+        <v>870</v>
       </c>
     </row>
     <row r="4">
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G4" t="n">
-        <v>559</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="5">
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>313</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>608</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7">
@@ -614,10 +614,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>875</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="8">
@@ -627,22 +627,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3807</v>
+      </c>
+      <c r="D8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>4902</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
       <c r="E8" t="n">
-        <v>6319</v>
+        <v>6188</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="9">
@@ -652,22 +652,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5884</v>
+        <v>1495</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>2128</v>
+        <v>2083</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>65</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="10">
@@ -680,19 +680,19 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>1097</v>
+        <v>2213</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>3579</v>
+        <v>3607</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>191</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11">
@@ -702,22 +702,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>2494</v>
+        <v>3295</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G11" t="n">
-        <v>230</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="12">
@@ -727,22 +727,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>3992</v>
+        <v>1623</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>844</v>
+        <v>1813</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13">
@@ -752,22 +752,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>2090</v>
+        <v>4704</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>5611</v>
+        <v>6025</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>171</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14">
@@ -842,7 +842,7 @@
         <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17">
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>1066</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="18">
@@ -927,22 +927,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>1164</v>
+        <v>7003</v>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>7213</v>
+        <v>7959</v>
       </c>
       <c r="F20" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>1033</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21">
@@ -955,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>1161</v>
+        <v>2068</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
@@ -980,7 +980,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>1419</v>
+        <v>2009</v>
       </c>
       <c r="D22" t="n">
         <v>3</v>
@@ -989,10 +989,10 @@
         <v>1948</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>72</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="23">
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>1803</v>
+        <v>2736</v>
       </c>
       <c r="D23" t="n">
         <v>4</v>
@@ -1014,10 +1014,10 @@
         <v>2716</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>101</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>988</v>
+        <v>755</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -1052,22 +1052,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C25" t="n">
-        <v>1674</v>
+        <v>8038</v>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E25" t="n">
-        <v>5450</v>
+        <v>6113</v>
       </c>
       <c r="F25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>946</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="26">
@@ -1077,22 +1077,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C26" t="n">
-        <v>5666</v>
+        <v>5344</v>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E26" t="n">
-        <v>2613</v>
+        <v>3833</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G26" t="n">
-        <v>193</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27">
@@ -1102,22 +1102,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>2378</v>
+        <v>3983</v>
       </c>
       <c r="D27" t="n">
         <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>169</v>
+        <v>1650</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>717</v>
       </c>
     </row>
     <row r="28">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
-        <v>4450</v>
+        <v>846</v>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>1495</v>
+        <v>152</v>
       </c>
       <c r="F28" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G28" t="n">
-        <v>283</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="29">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C29" t="n">
-        <v>8238</v>
+        <v>5497</v>
       </c>
       <c r="D29" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E29" t="n">
-        <v>4573</v>
+        <v>3804</v>
       </c>
       <c r="F29" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>415</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="30">
@@ -1177,22 +1177,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C30" t="n">
-        <v>7331</v>
+        <v>7471</v>
       </c>
       <c r="D30" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3454</v>
+      </c>
+      <c r="F30" t="n">
         <v>7</v>
       </c>
-      <c r="E30" t="n">
-        <v>1511</v>
-      </c>
-      <c r="F30" t="n">
-        <v>6</v>
-      </c>
       <c r="G30" t="n">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
@@ -1202,22 +1202,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C31" t="n">
-        <v>3967</v>
+        <v>2331</v>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E31" t="n">
-        <v>1710</v>
+        <v>1177</v>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G31" t="n">
-        <v>401</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="32">
@@ -1227,22 +1227,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>8758</v>
+        <v>588</v>
       </c>
       <c r="D32" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>9381</v>
+        <v>2421</v>
       </c>
       <c r="F32" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G32" t="n">
-        <v>259</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="33">
@@ -1252,22 +1252,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>10620</v>
+        <v>2846</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>10030</v>
+        <v>3122</v>
       </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G33" t="n">
-        <v>1807</v>
+        <v>9850</v>
       </c>
     </row>
     <row r="34">
@@ -1277,22 +1277,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>2839</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>7120</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="35">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C35" t="n">
-        <v>8363</v>
+        <v>2860</v>
       </c>
       <c r="D35" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E35" t="n">
-        <v>8083</v>
+        <v>7749</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G35" t="n">
-        <v>250</v>
+        <v>5423</v>
       </c>
     </row>
     <row r="36">
@@ -1327,22 +1327,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>1146</v>
+        <v>633</v>
       </c>
       <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7832</v>
+      </c>
+      <c r="F36" t="n">
         <v>4</v>
       </c>
-      <c r="E36" t="n">
-        <v>7362</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
       <c r="G36" t="n">
-        <v>170</v>
+        <v>527</v>
       </c>
     </row>
     <row r="37">
@@ -1352,22 +1352,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>4992</v>
+        <v>1480</v>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>10731</v>
+        <v>3250</v>
       </c>
       <c r="F37" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G37" t="n">
-        <v>3128</v>
+        <v>10274</v>
       </c>
     </row>
     <row r="38">
@@ -1377,22 +1377,22 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>13</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4494</v>
+      </c>
+      <c r="D38" t="n">
+        <v>14</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3945</v>
+      </c>
+      <c r="F38" t="n">
         <v>18</v>
       </c>
-      <c r="C38" t="n">
-        <v>7071</v>
-      </c>
-      <c r="D38" t="n">
-        <v>17</v>
-      </c>
-      <c r="E38" t="n">
-        <v>4110</v>
-      </c>
-      <c r="F38" t="n">
-        <v>13</v>
-      </c>
       <c r="G38" t="n">
-        <v>872</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="39">
@@ -1402,22 +1402,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C39" t="n">
-        <v>5687</v>
+        <v>4810</v>
       </c>
       <c r="D39" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E39" t="n">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G39" t="n">
-        <v>584</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="40">
@@ -1427,22 +1427,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C40" t="n">
-        <v>4639</v>
+        <v>2272</v>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E40" t="n">
-        <v>2280</v>
+        <v>2026</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G40" t="n">
-        <v>22</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="41">
@@ -1452,22 +1452,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C41" t="n">
-        <v>5477</v>
+        <v>6008</v>
       </c>
       <c r="D41" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E41" t="n">
-        <v>624</v>
+        <v>925</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G41" t="n">
-        <v>166</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="42">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>941</v>
+        <v>1561</v>
       </c>
       <c r="D42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>401</v>
+        <v>481</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="G42" t="n">
-        <v>64</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="43">
@@ -1502,22 +1502,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>5208</v>
+        <v>4362</v>
       </c>
       <c r="D43" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E43" t="n">
-        <v>817</v>
+        <v>783</v>
       </c>
       <c r="F43" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G43" t="n">
-        <v>477</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="44">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C44" t="n">
-        <v>12762</v>
+        <v>1648</v>
       </c>
       <c r="D44" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E44" t="n">
-        <v>13587</v>
+        <v>5228</v>
       </c>
       <c r="F44" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G44" t="n">
-        <v>296</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="45">
@@ -1552,22 +1552,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>5810</v>
+        <v>4408</v>
       </c>
       <c r="D45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E45" t="n">
-        <v>6050</v>
+        <v>5454</v>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G45" t="n">
-        <v>120</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="46">
@@ -1577,22 +1577,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C46" t="n">
-        <v>3151</v>
+        <v>861</v>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46" t="n">
-        <v>3920</v>
+        <v>6112</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G46" t="n">
-        <v>24</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="47">
@@ -1602,22 +1602,22 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C47" t="n">
-        <v>5917</v>
+        <v>4853</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E47" t="n">
-        <v>8994</v>
+        <v>8765</v>
       </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G47" t="n">
-        <v>233</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="48">
@@ -1627,22 +1627,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>4490</v>
+        <v>2361</v>
       </c>
       <c r="D48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>3482</v>
+        <v>2387</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G48" t="n">
-        <v>32</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="49">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>12318</v>
+        <v>1096</v>
       </c>
       <c r="D49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49" t="n">
-        <v>13386</v>
+        <v>10109</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>6336</v>
       </c>
     </row>
     <row r="50">
@@ -1764,10 +1764,10 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>631</v>
       </c>
     </row>
     <row r="54">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>3618</v>
+        <v>3872</v>
       </c>
       <c r="D56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E56" t="n">
-        <v>5515</v>
+        <v>4264</v>
       </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G56" t="n">
-        <v>330</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="57">
@@ -1852,10 +1852,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>5671</v>
+        <v>2163</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -1877,22 +1877,22 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>1154</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G58" t="n">
-        <v>1152</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="59">
@@ -1905,7 +1905,7 @@
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>1768</v>
+        <v>2972</v>
       </c>
       <c r="D59" t="n">
         <v>2</v>
@@ -1914,10 +1914,10 @@
         <v>3442</v>
       </c>
       <c r="F59" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G59" t="n">
-        <v>1530</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="60">
@@ -1927,10 +1927,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>175</v>
+        <v>580</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -1939,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G60" t="n">
-        <v>2497</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="61">
@@ -1952,22 +1952,22 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C61" t="n">
-        <v>421</v>
+        <v>1876</v>
       </c>
       <c r="D61" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E61" t="n">
-        <v>8134</v>
+        <v>9056</v>
       </c>
       <c r="F61" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G61" t="n">
-        <v>3045</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="62">
@@ -2002,10 +2002,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -2017,7 +2017,7 @@
         <v>5</v>
       </c>
       <c r="G63" t="n">
-        <v>341</v>
+        <v>648</v>
       </c>
     </row>
     <row r="64">
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G65" t="n">
-        <v>1385</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="66">
@@ -2092,7 +2092,7 @@
         <v>8</v>
       </c>
       <c r="G66" t="n">
-        <v>856</v>
+        <v>893</v>
       </c>
     </row>
     <row r="67">
@@ -2114,10 +2114,10 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68">
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>693</v>
+        <v>812</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -2142,7 +2142,7 @@
         <v>6</v>
       </c>
       <c r="G68" t="n">
-        <v>2707</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="69">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C70" t="n">
-        <v>12199</v>
+        <v>562</v>
       </c>
       <c r="D70" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>458</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G70" t="n">
-        <v>986</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="71">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="B71" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" t="n">
+        <v>826</v>
+      </c>
+      <c r="D71" t="n">
         <v>1</v>
       </c>
-      <c r="C71" t="n">
-        <v>27</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>826</v>
       </c>
       <c r="F71" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>2445</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="72">
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>22</v>
       </c>
       <c r="G72" t="n">
-        <v>4634</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="73">
@@ -2252,22 +2252,22 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C73" t="n">
-        <v>35</v>
+        <v>2107</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="F73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>3019</v>
+        <v>2366</v>
       </c>
     </row>
   </sheetData>
